--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1469.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1469.xlsx
@@ -357,7 +357,7 @@
         <v>2.316852483000119</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>1.324587107146315</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1469.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1469.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.274499124556191</v>
+        <v>1.13904857635498</v>
       </c>
       <c r="B1">
-        <v>1.594788077580845</v>
+        <v>3.329093456268311</v>
       </c>
       <c r="C1">
-        <v>2.316852483000119</v>
+        <v>3.51341438293457</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3.940408945083618</v>
       </c>
       <c r="E1">
-        <v>1.324587107146315</v>
+        <v>1.159700751304626</v>
       </c>
     </row>
   </sheetData>
